--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt1-Fzd1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt1-Fzd1.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.316217666666667</v>
+        <v>1.089882</v>
       </c>
       <c r="N2">
-        <v>3.948653</v>
+        <v>3.269646</v>
       </c>
       <c r="O2">
-        <v>0.04607034270304907</v>
+        <v>0.03774844717592688</v>
       </c>
       <c r="P2">
-        <v>0.04607034270304908</v>
+        <v>0.03774844717592687</v>
       </c>
       <c r="Q2">
-        <v>0.5557847557089999</v>
+        <v>0.460212483438</v>
       </c>
       <c r="R2">
-        <v>5.002062801381</v>
+        <v>4.141912350941999</v>
       </c>
       <c r="S2">
-        <v>0.04607034270304907</v>
+        <v>0.03774844717592688</v>
       </c>
       <c r="T2">
-        <v>0.04607034270304908</v>
+        <v>0.03774844717592687</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>72.700791</v>
       </c>
       <c r="O3">
-        <v>0.8482260548477534</v>
+        <v>0.8393391727152114</v>
       </c>
       <c r="P3">
-        <v>0.8482260548477534</v>
+        <v>0.8393391727152113</v>
       </c>
       <c r="Q3">
         <v>10.232854435623</v>
@@ -635,10 +635,10 @@
         <v>92.095689920607</v>
       </c>
       <c r="S3">
-        <v>0.8482260548477534</v>
+        <v>0.8393391727152114</v>
       </c>
       <c r="T3">
-        <v>0.8482260548477534</v>
+        <v>0.8393391727152113</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.784383</v>
+        <v>2.816943666666667</v>
       </c>
       <c r="N4">
-        <v>8.353149</v>
+        <v>8.450831000000001</v>
       </c>
       <c r="O4">
-        <v>0.09745916824791434</v>
+        <v>0.0975658366673901</v>
       </c>
       <c r="P4">
-        <v>0.09745916824791434</v>
+        <v>0.09756583666739009</v>
       </c>
       <c r="Q4">
-        <v>1.175730781197</v>
+        <v>1.189479815743</v>
       </c>
       <c r="R4">
-        <v>10.581577030773</v>
+        <v>10.705318341687</v>
       </c>
       <c r="S4">
-        <v>0.09745916824791434</v>
+        <v>0.0975658366673901</v>
       </c>
       <c r="T4">
-        <v>0.09745916824791434</v>
+        <v>0.09756583666739009</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2355413333333333</v>
+        <v>0.7318113333333334</v>
       </c>
       <c r="N5">
-        <v>0.7066239999999999</v>
+        <v>2.195434</v>
       </c>
       <c r="O5">
-        <v>0.008244434201283157</v>
+        <v>0.0253465434414716</v>
       </c>
       <c r="P5">
-        <v>0.008244434201283159</v>
+        <v>0.0253465434414716</v>
       </c>
       <c r="Q5">
-        <v>0.09945944787199998</v>
+        <v>0.309013921802</v>
       </c>
       <c r="R5">
-        <v>0.8951350308479999</v>
+        <v>2.781125296218</v>
       </c>
       <c r="S5">
-        <v>0.008244434201283157</v>
+        <v>0.0253465434414716</v>
       </c>
       <c r="T5">
-        <v>0.008244434201283159</v>
+        <v>0.0253465434414716</v>
       </c>
     </row>
   </sheetData>
